--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\Monash_Bootcamp\Week1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\Monash_Bootcamp\Week1\W1Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCCDD3A3-CED8-4C4E-821B-3C61CF90F0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B32844D-9F72-490A-8A71-EFFC854D3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6014" uniqueCount="2029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6015" uniqueCount="2030">
   <si>
     <t>name</t>
   </si>
@@ -6118,6 +6119,9 @@
   </si>
   <si>
     <t>category &amp; sub-category</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -6970,7 +6974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -51031,4 +51035,24 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE67782-98D0-4341-B0BE-9AB9E2295120}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CrowdfundingBook.xlsx
+++ b/CrowdfundingBook.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Desktop\Monash_Bootcamp\Week1\W1Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B32844D-9F72-490A-8A71-EFFC854D3583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D43D33-F494-4056-89C1-12BC9899C6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crowdfunding" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51042,7 +51042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
